--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.907455</v>
+        <v>0.9521773333333332</v>
       </c>
       <c r="H2">
-        <v>11.722365</v>
+        <v>2.856532</v>
       </c>
       <c r="I2">
-        <v>0.02724526174224166</v>
+        <v>0.005888173680712573</v>
       </c>
       <c r="J2">
-        <v>0.02724526174224165</v>
+        <v>0.005888173680712573</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.016423</v>
+        <v>188.5745136666667</v>
       </c>
       <c r="N2">
-        <v>315.049269</v>
+        <v>565.723541</v>
       </c>
       <c r="O2">
-        <v>0.2452643604371739</v>
+        <v>0.3378563924127341</v>
       </c>
       <c r="P2">
-        <v>0.2452643604371739</v>
+        <v>0.3378563924127341</v>
       </c>
       <c r="Q2">
-        <v>410.346947133465</v>
+        <v>179.5563775577569</v>
       </c>
       <c r="R2">
-        <v>3693.122524201185</v>
+        <v>1616.007398019812</v>
       </c>
       <c r="S2">
-        <v>0.006682291696154303</v>
+        <v>0.00198935711766516</v>
       </c>
       <c r="T2">
-        <v>0.006682291696154302</v>
+        <v>0.00198935711766516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.907455</v>
+        <v>0.9521773333333332</v>
       </c>
       <c r="H3">
-        <v>11.722365</v>
+        <v>2.856532</v>
       </c>
       <c r="I3">
-        <v>0.02724526174224166</v>
+        <v>0.005888173680712573</v>
       </c>
       <c r="J3">
-        <v>0.02724526174224165</v>
+        <v>0.005888173680712573</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>598.400758</v>
       </c>
       <c r="O3">
-        <v>0.4658521496077176</v>
+        <v>0.3573715899422427</v>
       </c>
       <c r="P3">
-        <v>0.4658521496077176</v>
+        <v>0.3573715899422427</v>
       </c>
       <c r="Q3">
-        <v>779.40801128363</v>
+        <v>189.9278793390284</v>
       </c>
       <c r="R3">
-        <v>7014.67210155267</v>
+        <v>1709.350914051256</v>
       </c>
       <c r="S3">
-        <v>0.01269226374924819</v>
+        <v>0.00210426599013232</v>
       </c>
       <c r="T3">
-        <v>0.01269226374924818</v>
+        <v>0.00210426599013232</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.907455</v>
+        <v>0.9521773333333332</v>
       </c>
       <c r="H4">
-        <v>11.722365</v>
+        <v>2.856532</v>
       </c>
       <c r="I4">
-        <v>0.02724526174224166</v>
+        <v>0.005888173680712573</v>
       </c>
       <c r="J4">
-        <v>0.02724526174224165</v>
+        <v>0.005888173680712573</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>110.7356846666667</v>
+        <v>125.2744573333333</v>
       </c>
       <c r="N4">
-        <v>332.207054</v>
+        <v>375.823372</v>
       </c>
       <c r="O4">
-        <v>0.2586216146149119</v>
+        <v>0.224445898828716</v>
       </c>
       <c r="P4">
-        <v>0.2586216146149119</v>
+        <v>0.224445898828716</v>
       </c>
       <c r="Q4">
-        <v>432.6947047291901</v>
+        <v>119.2834987184338</v>
       </c>
       <c r="R4">
-        <v>3894.252342562711</v>
+        <v>1073.551488465904</v>
       </c>
       <c r="S4">
-        <v>0.007046213582384424</v>
+        <v>0.001321576434227122</v>
       </c>
       <c r="T4">
-        <v>0.007046213582384424</v>
+        <v>0.001321576434227122</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.907455</v>
+        <v>0.9521773333333332</v>
       </c>
       <c r="H5">
-        <v>11.722365</v>
+        <v>2.856532</v>
       </c>
       <c r="I5">
-        <v>0.02724526174224166</v>
+        <v>0.005888173680712573</v>
       </c>
       <c r="J5">
-        <v>0.02724526174224165</v>
+        <v>0.005888173680712573</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.95742233333333</v>
+        <v>44.83401566666667</v>
       </c>
       <c r="N5">
-        <v>38.872267</v>
+        <v>134.502047</v>
       </c>
       <c r="O5">
-        <v>0.03026187534019659</v>
+        <v>0.08032611881630715</v>
       </c>
       <c r="P5">
-        <v>0.03026187534019659</v>
+        <v>0.08032611881630715</v>
       </c>
       <c r="Q5">
-        <v>50.630544683495</v>
+        <v>42.68993348011155</v>
       </c>
       <c r="R5">
-        <v>455.674902151455</v>
+        <v>384.209401321004</v>
       </c>
       <c r="S5">
-        <v>0.0008244927144547443</v>
+        <v>0.0004729741386879708</v>
       </c>
       <c r="T5">
-        <v>0.0008244927144547442</v>
+        <v>0.0004729741386879708</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>263.005996</v>
       </c>
       <c r="I6">
-        <v>0.6112816996228118</v>
+        <v>0.5421346526196088</v>
       </c>
       <c r="J6">
-        <v>0.6112816996228116</v>
+        <v>0.5421346526196088</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>105.016423</v>
+        <v>188.5745136666667</v>
       </c>
       <c r="N6">
-        <v>315.049269</v>
+        <v>565.723541</v>
       </c>
       <c r="O6">
-        <v>0.2452643604371739</v>
+        <v>0.3378563924127341</v>
       </c>
       <c r="P6">
-        <v>0.2452643604371739</v>
+        <v>0.3378563924127341</v>
       </c>
       <c r="Q6">
-        <v>9206.649642490767</v>
+        <v>16532.07592903909</v>
       </c>
       <c r="R6">
-        <v>82859.84678241692</v>
+        <v>148788.6833613518</v>
       </c>
       <c r="S6">
-        <v>0.1499256151049376</v>
+        <v>0.1831636579359918</v>
       </c>
       <c r="T6">
-        <v>0.1499256151049375</v>
+        <v>0.1831636579359918</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>263.005996</v>
       </c>
       <c r="I7">
-        <v>0.6112816996228118</v>
+        <v>0.5421346526196088</v>
       </c>
       <c r="J7">
-        <v>0.6112816996228116</v>
+        <v>0.5421346526196088</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>598.400758</v>
       </c>
       <c r="O7">
-        <v>0.4658521496077176</v>
+        <v>0.3573715899422427</v>
       </c>
       <c r="P7">
-        <v>0.4658521496077176</v>
+        <v>0.3573715899422427</v>
       </c>
       <c r="Q7">
         <v>17486.99859610499</v>
@@ -883,10 +883,10 @@
         <v>157382.9873649449</v>
       </c>
       <c r="S7">
-        <v>0.284766893785146</v>
+        <v>0.193743522769455</v>
       </c>
       <c r="T7">
-        <v>0.284766893785146</v>
+        <v>0.193743522769455</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>263.005996</v>
       </c>
       <c r="I8">
-        <v>0.6112816996228118</v>
+        <v>0.5421346526196088</v>
       </c>
       <c r="J8">
-        <v>0.6112816996228116</v>
+        <v>0.5421346526196088</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>110.7356846666667</v>
+        <v>125.2744573333333</v>
       </c>
       <c r="N8">
-        <v>332.207054</v>
+        <v>375.823372</v>
       </c>
       <c r="O8">
-        <v>0.2586216146149119</v>
+        <v>0.224445898828716</v>
       </c>
       <c r="P8">
-        <v>0.2586216146149119</v>
+        <v>0.224445898828716</v>
       </c>
       <c r="Q8">
-        <v>9708.049679499531</v>
+        <v>10982.64447477094</v>
       </c>
       <c r="R8">
-        <v>87372.44711549579</v>
+        <v>98843.8002729385</v>
       </c>
       <c r="S8">
-        <v>0.1580906601409992</v>
+        <v>0.1216798993934018</v>
       </c>
       <c r="T8">
-        <v>0.1580906601409991</v>
+        <v>0.1216798993934018</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>263.005996</v>
       </c>
       <c r="I9">
-        <v>0.6112816996228118</v>
+        <v>0.5421346526196088</v>
       </c>
       <c r="J9">
-        <v>0.6112816996228116</v>
+        <v>0.5421346526196088</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.95742233333333</v>
+        <v>44.83401566666667</v>
       </c>
       <c r="N9">
-        <v>38.872267</v>
+        <v>134.502047</v>
       </c>
       <c r="O9">
-        <v>0.03026187534019659</v>
+        <v>0.08032611881630715</v>
       </c>
       <c r="P9">
-        <v>0.03026187534019659</v>
+        <v>0.08032611881630715</v>
       </c>
       <c r="Q9">
-        <v>1135.959922123659</v>
+        <v>3930.538315030423</v>
       </c>
       <c r="R9">
-        <v>10223.63929911293</v>
+        <v>35374.84483527381</v>
       </c>
       <c r="S9">
-        <v>0.01849853059172903</v>
+        <v>0.0435475725207601</v>
       </c>
       <c r="T9">
-        <v>0.01849853059172902</v>
+        <v>0.0435475725207601</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>51.77204933333334</v>
+        <v>72.96496833333333</v>
       </c>
       <c r="H10">
-        <v>155.316148</v>
+        <v>218.894905</v>
       </c>
       <c r="I10">
-        <v>0.3609876594916421</v>
+        <v>0.4512083948168896</v>
       </c>
       <c r="J10">
-        <v>0.360987659491642</v>
+        <v>0.4512083948168896</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>105.016423</v>
+        <v>188.5745136666667</v>
       </c>
       <c r="N10">
-        <v>315.049269</v>
+        <v>565.723541</v>
       </c>
       <c r="O10">
-        <v>0.2452643604371739</v>
+        <v>0.3378563924127341</v>
       </c>
       <c r="P10">
-        <v>0.2452643604371739</v>
+        <v>0.3378563924127341</v>
       </c>
       <c r="Q10">
-        <v>5436.915432366201</v>
+        <v>13759.33341816207</v>
       </c>
       <c r="R10">
-        <v>48932.2388912958</v>
+        <v>123834.0007634586</v>
       </c>
       <c r="S10">
-        <v>0.08853740743092992</v>
+        <v>0.1524436404991749</v>
       </c>
       <c r="T10">
-        <v>0.08853740743092989</v>
+        <v>0.1524436404991749</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>51.77204933333334</v>
+        <v>72.96496833333333</v>
       </c>
       <c r="H11">
-        <v>155.316148</v>
+        <v>218.894905</v>
       </c>
       <c r="I11">
-        <v>0.3609876594916421</v>
+        <v>0.4512083948168896</v>
       </c>
       <c r="J11">
-        <v>0.360987659491642</v>
+        <v>0.4512083948168896</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>598.400758</v>
       </c>
       <c r="O11">
-        <v>0.4658521496077176</v>
+        <v>0.3573715899422427</v>
       </c>
       <c r="P11">
-        <v>0.4658521496077176</v>
+        <v>0.3573715899422427</v>
       </c>
       <c r="Q11">
-        <v>10326.81118809335</v>
+        <v>14554.09745270422</v>
       </c>
       <c r="R11">
-        <v>92941.30069284019</v>
+        <v>130986.877074338</v>
       </c>
       <c r="S11">
-        <v>0.1681668771560403</v>
+        <v>0.161249061450999</v>
       </c>
       <c r="T11">
-        <v>0.1681668771560403</v>
+        <v>0.161249061450999</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>51.77204933333334</v>
+        <v>72.96496833333333</v>
       </c>
       <c r="H12">
-        <v>155.316148</v>
+        <v>218.894905</v>
       </c>
       <c r="I12">
-        <v>0.3609876594916421</v>
+        <v>0.4512083948168896</v>
       </c>
       <c r="J12">
-        <v>0.360987659491642</v>
+        <v>0.4512083948168896</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>110.7356846666667</v>
+        <v>125.2744573333333</v>
       </c>
       <c r="N12">
-        <v>332.207054</v>
+        <v>375.823372</v>
       </c>
       <c r="O12">
-        <v>0.2586216146149119</v>
+        <v>0.224445898828716</v>
       </c>
       <c r="P12">
-        <v>0.2586216146149119</v>
+        <v>0.224445898828716</v>
       </c>
       <c r="Q12">
-        <v>5733.013329523111</v>
+        <v>9140.646812302184</v>
       </c>
       <c r="R12">
-        <v>51597.11996570799</v>
+        <v>82265.82131071966</v>
       </c>
       <c r="S12">
-        <v>0.09335921135378651</v>
+        <v>0.1012718737337389</v>
       </c>
       <c r="T12">
-        <v>0.09335921135378648</v>
+        <v>0.1012718737337389</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>51.77204933333334</v>
+        <v>72.96496833333333</v>
       </c>
       <c r="H13">
-        <v>155.316148</v>
+        <v>218.894905</v>
       </c>
       <c r="I13">
-        <v>0.3609876594916421</v>
+        <v>0.4512083948168896</v>
       </c>
       <c r="J13">
-        <v>0.360987659491642</v>
+        <v>0.4512083948168896</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.95742233333333</v>
+        <v>44.83401566666667</v>
       </c>
       <c r="N13">
-        <v>38.872267</v>
+        <v>134.502047</v>
       </c>
       <c r="O13">
-        <v>0.03026187534019659</v>
+        <v>0.08032611881630715</v>
       </c>
       <c r="P13">
-        <v>0.03026187534019659</v>
+        <v>0.08032611881630715</v>
       </c>
       <c r="Q13">
-        <v>670.8323082741684</v>
+        <v>3271.312533374504</v>
       </c>
       <c r="R13">
-        <v>6037.490774467516</v>
+        <v>29441.81280037054</v>
       </c>
       <c r="S13">
-        <v>0.01092416355088541</v>
+        <v>0.0362438191329767</v>
       </c>
       <c r="T13">
-        <v>0.0109241635508854</v>
+        <v>0.0362438191329767</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06961199999999999</v>
+        <v>0.1243193333333333</v>
       </c>
       <c r="H14">
-        <v>0.208836</v>
+        <v>0.372958</v>
       </c>
       <c r="I14">
-        <v>0.0004853791433045105</v>
+        <v>0.0007687788827890604</v>
       </c>
       <c r="J14">
-        <v>0.0004853791433045105</v>
+        <v>0.0007687788827890604</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>105.016423</v>
+        <v>188.5745136666667</v>
       </c>
       <c r="N14">
-        <v>315.049269</v>
+        <v>565.723541</v>
       </c>
       <c r="O14">
-        <v>0.2452643604371739</v>
+        <v>0.3378563924127341</v>
       </c>
       <c r="P14">
-        <v>0.2452643604371739</v>
+        <v>0.3378563924127341</v>
       </c>
       <c r="Q14">
-        <v>7.310403237875999</v>
+        <v>23.44345782269756</v>
       </c>
       <c r="R14">
-        <v>65.79362914088399</v>
+        <v>210.991120404278</v>
       </c>
       <c r="S14">
-        <v>0.0001190462051521241</v>
+        <v>0.0002597368599022041</v>
       </c>
       <c r="T14">
-        <v>0.0001190462051521241</v>
+        <v>0.0002597368599022041</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06961199999999999</v>
+        <v>0.1243193333333333</v>
       </c>
       <c r="H15">
-        <v>0.208836</v>
+        <v>0.372958</v>
       </c>
       <c r="I15">
-        <v>0.0004853791433045105</v>
+        <v>0.0007687788827890604</v>
       </c>
       <c r="J15">
-        <v>0.0004853791433045105</v>
+        <v>0.0007687788827890604</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>598.400758</v>
       </c>
       <c r="O15">
-        <v>0.4658521496077176</v>
+        <v>0.3573715899422427</v>
       </c>
       <c r="P15">
-        <v>0.4658521496077176</v>
+        <v>0.3573715899422427</v>
       </c>
       <c r="Q15">
-        <v>13.885291188632</v>
+        <v>24.79759443357378</v>
       </c>
       <c r="R15">
-        <v>124.967620697688</v>
+        <v>223.178349902164</v>
       </c>
       <c r="S15">
-        <v>0.0002261149172831586</v>
+        <v>0.0002747397316563476</v>
       </c>
       <c r="T15">
-        <v>0.0002261149172831586</v>
+        <v>0.0002747397316563476</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.06961199999999999</v>
+        <v>0.1243193333333333</v>
       </c>
       <c r="H16">
-        <v>0.208836</v>
+        <v>0.372958</v>
       </c>
       <c r="I16">
-        <v>0.0004853791433045105</v>
+        <v>0.0007687788827890604</v>
       </c>
       <c r="J16">
-        <v>0.0004853791433045105</v>
+        <v>0.0007687788827890604</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>110.7356846666667</v>
+        <v>125.2744573333333</v>
       </c>
       <c r="N16">
-        <v>332.207054</v>
+        <v>375.823372</v>
       </c>
       <c r="O16">
-        <v>0.2586216146149119</v>
+        <v>0.224445898828716</v>
       </c>
       <c r="P16">
-        <v>0.2586216146149119</v>
+        <v>0.224445898828716</v>
       </c>
       <c r="Q16">
-        <v>7.708532481015999</v>
+        <v>15.57403701937511</v>
       </c>
       <c r="R16">
-        <v>69.37679232914401</v>
+        <v>140.166333174376</v>
       </c>
       <c r="S16">
-        <v>0.0001255295377418152</v>
+        <v>0.0001725492673481268</v>
       </c>
       <c r="T16">
-        <v>0.0001255295377418152</v>
+        <v>0.0001725492673481267</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.06961199999999999</v>
+        <v>0.1243193333333333</v>
       </c>
       <c r="H17">
-        <v>0.208836</v>
+        <v>0.372958</v>
       </c>
       <c r="I17">
-        <v>0.0004853791433045105</v>
+        <v>0.0007687788827890604</v>
       </c>
       <c r="J17">
-        <v>0.0004853791433045105</v>
+        <v>0.0007687788827890604</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.95742233333333</v>
+        <v>44.83401566666667</v>
       </c>
       <c r="N17">
-        <v>38.872267</v>
+        <v>134.502047</v>
       </c>
       <c r="O17">
-        <v>0.03026187534019659</v>
+        <v>0.08032611881630715</v>
       </c>
       <c r="P17">
-        <v>0.03026187534019659</v>
+        <v>0.08032611881630715</v>
       </c>
       <c r="Q17">
-        <v>0.901992083468</v>
+        <v>5.573734938336222</v>
       </c>
       <c r="R17">
-        <v>8.117928751212</v>
+        <v>50.16361444502601</v>
       </c>
       <c r="S17">
-        <v>1.468848312741251E-05</v>
+        <v>6.175302388238193E-05</v>
       </c>
       <c r="T17">
-        <v>1.468848312741251E-05</v>
+        <v>6.175302388238193E-05</v>
       </c>
     </row>
   </sheetData>
